--- a/data_output/combined_turnover_fit.xlsx
+++ b/data_output/combined_turnover_fit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tristan/active_repos/tristan_d2o/data_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9607D1AD-AFC1-2541-92FF-F86AAFDD1C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8E19F4-457E-9D4E-B055-AF80238C4292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5920" yWindow="500" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="linear_model" sheetId="1" r:id="rId1"/>
@@ -535,7 +535,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
